--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
   <si>
     <t>TYPE</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>ExternalApp</t>
+  </si>
+  <si>
+    <t>GetLargeMessageStorage</t>
+  </si>
+  <si>
+    <t>large_message_storage_datasource</t>
   </si>
 </sst>
 </file>
@@ -248,17 +254,24 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -272,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -282,14 +295,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,7 +996,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1038,7 +1054,7 @@
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1101,10 +1117,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -1112,10 +1128,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1123,7 +1139,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1134,10 +1150,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -1233,10 +1249,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1244,10 +1260,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1255,7 +1271,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -1266,10 +1282,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1483,6 +1499,17 @@
       </c>
       <c r="C78" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -1,263 +1,329 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>FIELD</t>
-  </si>
-  <si>
-    <t>DATASOURCE</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>GetMessageType</t>
-  </si>
-  <si>
-    <t>message_datasource</t>
-  </si>
-  <si>
-    <t>GetUsersForTenant</t>
-  </si>
-  <si>
-    <t>tenant_datasource</t>
-  </si>
-  <si>
-    <t>GetUser</t>
-  </si>
-  <si>
-    <t>SearchNodes</t>
-  </si>
-  <si>
-    <t>node_datasource</t>
-  </si>
-  <si>
-    <t>SearchEdges</t>
-  </si>
-  <si>
-    <t>edge_datasource</t>
-  </si>
-  <si>
-    <t>SearchApps</t>
-  </si>
-  <si>
-    <t>app_datasource</t>
-  </si>
-  <si>
-    <t>ListKeys</t>
-  </si>
-  <si>
-    <t>kms_key_datasource</t>
-  </si>
-  <si>
-    <t>ListMessageTypes</t>
-  </si>
-  <si>
-    <t>message_type_datasource</t>
-  </si>
-  <si>
-    <t>ValidateFunction</t>
-  </si>
-  <si>
-    <t>validate_function_datasource</t>
-  </si>
-  <si>
-    <t>Mutation</t>
-  </si>
-  <si>
-    <t>PutDicomTcpInboundNode</t>
-  </si>
-  <si>
-    <t>PutDicomTcpOutboundNode</t>
-  </si>
-  <si>
-    <t>PutEdge</t>
-  </si>
-  <si>
-    <t>PutExternalApp</t>
-  </si>
-  <si>
-    <t>PutExternalNode</t>
-  </si>
-  <si>
-    <t>PutHl7MllpInboundNode</t>
-  </si>
-  <si>
-    <t>PutHl7MllpOutboundNode</t>
-  </si>
-  <si>
-    <t>PutKmsKey</t>
-  </si>
-  <si>
-    <t>PutManagedApp</t>
-  </si>
-  <si>
-    <t>PutMessageType</t>
-  </si>
-  <si>
-    <t>PutRouterNode</t>
-  </si>
-  <si>
-    <t>PutTenant</t>
-  </si>
-  <si>
-    <t>PutTransNode</t>
-  </si>
-  <si>
-    <t>PutXTenantSendingApp</t>
-  </si>
-  <si>
-    <t>PutXTenantSendingNode</t>
-  </si>
-  <si>
-    <t>AddUserToTenant</t>
-  </si>
-  <si>
-    <t>DeleteEdge</t>
-  </si>
-  <si>
-    <t>DeleteApp</t>
-  </si>
-  <si>
-    <t>DeleteMessageType</t>
-  </si>
-  <si>
-    <t>DeleteNode</t>
-  </si>
-  <si>
-    <t>ResetAppPassword</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>kmsKey</t>
-  </si>
-  <si>
-    <t>sub_field_datasource</t>
-  </si>
-  <si>
-    <t>tenant</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>messageType</t>
-  </si>
-  <si>
-    <t>DicomTcpInboundNode</t>
-  </si>
-  <si>
-    <t>sendEdges</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>DicomTcpOutboundNode</t>
-  </si>
-  <si>
-    <t>receiveEdges</t>
-  </si>
-  <si>
-    <t>ExternalNode</t>
-  </si>
-  <si>
-    <t>RouterNode</t>
-  </si>
-  <si>
-    <t>receiveMessageType</t>
-  </si>
-  <si>
-    <t>Hl7MllpOutboundNode</t>
-  </si>
-  <si>
-    <t>KmsKey</t>
-  </si>
-  <si>
-    <t>TransNode</t>
-  </si>
-  <si>
-    <t>SendMessageType</t>
-  </si>
-  <si>
-    <t>ManagedApp</t>
-  </si>
-  <si>
-    <t>nodes</t>
-  </si>
-  <si>
-    <t>MessageType</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>XTenantReceivingApp</t>
-  </si>
-  <si>
-    <t>XTenantReceivingNode</t>
-  </si>
-  <si>
-    <t>XTenantSendingApp</t>
-  </si>
-  <si>
-    <t>XTenantSendingNode</t>
-  </si>
-  <si>
-    <t>CognitoUser</t>
-  </si>
-  <si>
-    <t>ExternalApp</t>
-  </si>
-  <si>
-    <t>GetLargeMessageStorage</t>
-  </si>
-  <si>
-    <t>large_message_storage_datasource</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="84">
+  <si>
+    <t xml:space="preserve">TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATASOURCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetMessageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetUsersForTenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SearchNodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SearchEdges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edge_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SearchApps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListKeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kms_key_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListMessageTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message_type_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValidateFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate_function_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutDicomTcpInboundNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutDicomTcpOutboundNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutEdge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutExternalApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutExternalNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutHl7MllpInboundNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutHl7MllpOutboundNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutKmsKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutManagedApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutMessageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutRouterNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutTenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutTransNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutXTenantSendingApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PutXTenantSendingNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddUserToTenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteEdge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteMessageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResetAppPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kmsKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_field_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">messageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DicomTcpInboundNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sendEdges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DicomTcpOutboundNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receiveEdges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExternalNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RouterNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receiveMessageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hl7MllpOutboundNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KmsKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SendMessageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManagedApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MessageType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTenantReceivingApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTenantReceivingNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTenantSendingApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTenantSendingNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CognitoUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExternalApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetLargeMessageStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large_message_storage_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppNotification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeNotification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EdgeNotification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MessageTypeNotification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription_datasource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodeUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgeUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">messageTypeUpdated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -265,270 +331,108 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.86"/>
-    <col customWidth="1" min="2" max="2" width="45.86"/>
-    <col customWidth="1" min="3" max="3" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.71"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -550,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -561,7 +465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -572,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -583,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,7 +498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -605,7 +509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -616,7 +520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -627,7 +531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -638,7 +542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -649,7 +553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -660,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -671,7 +575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -682,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -693,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -704,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -715,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -726,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -737,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -748,7 +652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -759,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -770,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -781,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -792,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -803,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -814,177 +718,177 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -995,7 +899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1006,7 +910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -1017,7 +921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -1028,7 +932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -1039,7 +943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -1050,7 +954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
@@ -1061,7 +965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -1072,7 +976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -1083,7 +987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -1094,7 +998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1105,7 +1009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -1116,51 +1020,51 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="C47" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -1171,7 +1075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -1182,7 +1086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
@@ -1193,7 +1097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1204,7 +1108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
@@ -1215,7 +1119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -1226,7 +1130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -1237,7 +1141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -1248,7 +1152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -1259,7 +1163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -1270,18 +1174,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -1292,18 +1196,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -1314,7 +1218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -1325,7 +1229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -1336,7 +1240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -1347,7 +1251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -1358,7 +1262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -1369,7 +1273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -1380,7 +1284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -1391,18 +1295,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -1413,18 +1317,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -1435,7 +1339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
@@ -1446,7 +1350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -1457,7 +1361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
@@ -1468,7 +1372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -1479,7 +1383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
@@ -1490,7 +1394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>71</v>
       </c>
@@ -1501,18 +1405,112 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="5" t="s">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t xml:space="preserve">messageTypeUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetTenantUser</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -402,14 +405,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -419,17 +426,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89:C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,6 +1512,50 @@
         <v>80</v>
       </c>
     </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>TYPE</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>ListManagedNodeTypes</t>
+  </si>
+  <si>
+    <t>GetNodeCallableLogs</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1847,6 +1850,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
   <si>
     <t>TYPE</t>
   </si>
@@ -251,33 +251,12 @@
     <t>AppNotification</t>
   </si>
   <si>
-    <t>NodeNotification</t>
-  </si>
-  <si>
-    <t>EdgeNotification</t>
-  </si>
-  <si>
-    <t>MessageTypeNotification</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
-    <t>appUpdated</t>
-  </si>
-  <si>
     <t>subscription_datasource</t>
   </si>
   <si>
-    <t>nodeUpdated</t>
-  </si>
-  <si>
-    <t>edgeUpdated</t>
-  </si>
-  <si>
-    <t>messageTypeUpdated</t>
-  </si>
-  <si>
     <t>GetTenantUser</t>
   </si>
   <si>
@@ -300,6 +279,21 @@
   </si>
   <si>
     <t>GetNodeCallableLogs</t>
+  </si>
+  <si>
+    <t>appNotifications</t>
+  </si>
+  <si>
+    <t>NotifyApp</t>
+  </si>
+  <si>
+    <t>NotifyUI</t>
+  </si>
+  <si>
+    <t>uiNotifications</t>
+  </si>
+  <si>
+    <t>PurgeQueue</t>
   </si>
 </sst>
 </file>
@@ -380,11 +374,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -783,17 +775,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -805,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -981,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
@@ -992,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
@@ -1195,7 +1187,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
@@ -1206,43 +1198,43 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1250,7 +1242,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>45</v>
@@ -1261,10 +1253,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1272,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>45</v>
@@ -1280,10 +1272,10 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>45</v>
@@ -1291,21 +1283,21 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>45</v>
@@ -1313,7 +1305,7 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>46</v>
@@ -1324,10 +1316,10 @@
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>45</v>
@@ -1335,7 +1327,7 @@
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -1346,7 +1338,7 @@
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>46</v>
@@ -1357,34 +1349,34 @@
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1393,42 +1385,42 @@
         <v>56</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1437,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>45</v>
@@ -1445,10 +1437,10 @@
     </row>
     <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>45</v>
@@ -1456,7 +1448,7 @@
     </row>
     <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>54</v>
@@ -1467,10 +1459,10 @@
     </row>
     <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>45</v>
@@ -1478,7 +1470,7 @@
     </row>
     <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>46</v>
@@ -1489,10 +1481,10 @@
     </row>
     <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>45</v>
@@ -1500,10 +1492,10 @@
     </row>
     <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>45</v>
@@ -1511,10 +1503,10 @@
     </row>
     <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>45</v>
@@ -1525,7 +1517,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>45</v>
@@ -1536,18 +1528,18 @@
         <v>60</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>61</v>
+      <c r="B69" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>45</v>
@@ -1555,10 +1547,10 @@
     </row>
     <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>45</v>
@@ -1566,21 +1558,21 @@
     </row>
     <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>45</v>
@@ -1588,7 +1580,7 @@
     </row>
     <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>46</v>
@@ -1599,10 +1591,10 @@
     </row>
     <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>45</v>
@@ -1610,10 +1602,10 @@
     </row>
     <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>45</v>
@@ -1621,7 +1613,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>46</v>
@@ -1632,29 +1624,29 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>63</v>
+      <c r="A78" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>46</v>
@@ -1663,23 +1655,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>49</v>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>45</v>
@@ -1687,10 +1679,10 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>45</v>
@@ -1698,10 +1690,10 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>45</v>
@@ -1712,7 +1704,7 @@
         <v>69</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>45</v>
@@ -1720,10 +1712,10 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>45</v>
@@ -1731,134 +1723,101 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>80</v>
+      <c r="A91" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>80</v>
+      <c r="A92" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>80</v>
+      <c r="A93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AWS\Shared Folder\hl7-ninja\hl7-ninja-appsync\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AWS\Shared Folder\hl7-ninja\appsync\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="95">
   <si>
     <t>TYPE</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>PurgeQueue</t>
+  </si>
+  <si>
+    <t>PutFunction</t>
+  </si>
+  <si>
+    <t>DeleteFunction</t>
+  </si>
+  <si>
+    <t>transformerFunction</t>
+  </si>
+  <si>
+    <t>bitmapperFunction</t>
+  </si>
+  <si>
+    <t>function_datasource</t>
   </si>
 </sst>
 </file>
@@ -657,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,12 +1408,12 @@
     </row>
     <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1407,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>45</v>
@@ -1418,7 +1433,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>45</v>
@@ -1429,7 +1444,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>45</v>
@@ -1437,10 +1452,10 @@
     </row>
     <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>45</v>
@@ -1451,7 +1466,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>45</v>
@@ -1462,7 +1477,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>45</v>
@@ -1470,10 +1485,10 @@
     </row>
     <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>45</v>
@@ -1481,7 +1496,7 @@
     </row>
     <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>46</v>
@@ -1495,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>45</v>
@@ -1505,8 +1520,8 @@
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>61</v>
+      <c r="B66" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>45</v>
@@ -1516,8 +1531,8 @@
       <c r="A67" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>54</v>
+      <c r="B67" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>45</v>
@@ -1528,18 +1543,18 @@
         <v>60</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>45</v>
@@ -1547,21 +1562,21 @@
     </row>
     <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>63</v>
+      <c r="A71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>45</v>
@@ -1569,7 +1584,7 @@
     </row>
     <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>46</v>
@@ -1580,10 +1595,10 @@
     </row>
     <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>45</v>
@@ -1591,7 +1606,7 @@
     </row>
     <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>46</v>
@@ -1602,10 +1617,10 @@
     </row>
     <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>45</v>
@@ -1613,7 +1628,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>46</v>
@@ -1624,43 +1639,43 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="C79" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>45</v>
@@ -1668,7 +1683,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>46</v>
@@ -1679,10 +1694,10 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>45</v>
@@ -1693,7 +1708,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>45</v>
@@ -1704,7 +1719,7 @@
         <v>69</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>45</v>
@@ -1712,10 +1727,10 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>45</v>
@@ -1723,101 +1738,156 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
   <si>
     <t>TYPE</t>
   </si>
@@ -176,18 +176,12 @@
     <t>messageType</t>
   </si>
   <si>
-    <t>DicomTcpInboundNode</t>
-  </si>
-  <si>
     <t>sendEdges</t>
   </si>
   <si>
     <t>app</t>
   </si>
   <si>
-    <t>DicomTcpOutboundNode</t>
-  </si>
-  <si>
     <t>receiveEdges</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>receiveMessageType</t>
   </si>
   <si>
-    <t>Hl7MllpOutboundNode</t>
-  </si>
-  <si>
     <t>KmsKey</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>XTenantSendingNode</t>
   </si>
   <si>
-    <t>CognitoUser</t>
-  </si>
-  <si>
     <t>ExternalApp</t>
   </si>
   <si>
@@ -284,12 +272,6 @@
     <t>appNotifications</t>
   </si>
   <si>
-    <t>NotifyApp</t>
-  </si>
-  <si>
-    <t>NotifyUI</t>
-  </si>
-  <si>
     <t>uiNotifications</t>
   </si>
   <si>
@@ -309,6 +291,30 @@
   </si>
   <si>
     <t>function_datasource</t>
+  </si>
+  <si>
+    <t>sendMessageType</t>
+  </si>
+  <si>
+    <t>instances</t>
+  </si>
+  <si>
+    <t>TenantInfo</t>
+  </si>
+  <si>
+    <t>tenantInfo</t>
+  </si>
+  <si>
+    <t>GetTenant</t>
+  </si>
+  <si>
+    <t>ListApiUsers</t>
+  </si>
+  <si>
+    <t>api_user_datasource</t>
+  </si>
+  <si>
+    <t>ListSnsSubscriptions</t>
   </si>
 </sst>
 </file>
@@ -672,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -768,10 +774,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -779,10 +785,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -790,21 +796,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -812,333 +818,241 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
+      <c r="B13" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1169,139 +1083,231 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>45</v>
@@ -1309,10 +1315,10 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>45</v>
@@ -1320,10 +1326,10 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>45</v>
@@ -1331,10 +1337,10 @@
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>45</v>
@@ -1342,10 +1348,10 @@
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>45</v>
@@ -1353,21 +1359,21 @@
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>45</v>
@@ -1375,10 +1381,10 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>45</v>
@@ -1386,10 +1392,10 @@
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>45</v>
@@ -1397,10 +1403,10 @@
     </row>
     <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>45</v>
@@ -1408,10 +1414,10 @@
     </row>
     <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>45</v>
@@ -1419,10 +1425,10 @@
     </row>
     <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>45</v>
@@ -1430,10 +1436,10 @@
     </row>
     <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>45</v>
@@ -1441,10 +1447,10 @@
     </row>
     <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>45</v>
@@ -1452,10 +1458,10 @@
     </row>
     <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>45</v>
@@ -1463,10 +1469,10 @@
     </row>
     <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>45</v>
@@ -1474,10 +1480,10 @@
     </row>
     <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>45</v>
@@ -1485,10 +1491,10 @@
     </row>
     <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>45</v>
@@ -1496,7 +1502,7 @@
     </row>
     <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>46</v>
@@ -1507,10 +1513,10 @@
     </row>
     <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>45</v>
@@ -1518,10 +1524,10 @@
     </row>
     <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>45</v>
@@ -1529,10 +1535,10 @@
     </row>
     <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>45</v>
@@ -1540,21 +1546,21 @@
     </row>
     <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>46</v>
+      <c r="A69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>45</v>
@@ -1562,21 +1568,21 @@
     </row>
     <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>45</v>
@@ -1584,10 +1590,10 @@
     </row>
     <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>45</v>
@@ -1595,10 +1601,10 @@
     </row>
     <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>45</v>
@@ -1606,10 +1612,10 @@
     </row>
     <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>45</v>
@@ -1617,7 +1623,7 @@
     </row>
     <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>46</v>
@@ -1628,10 +1634,10 @@
     </row>
     <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>45</v>
@@ -1639,10 +1645,10 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>45</v>
@@ -1650,21 +1656,21 @@
     </row>
     <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>51</v>
+      <c r="A79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>45</v>
@@ -1672,10 +1678,10 @@
     </row>
     <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>45</v>
@@ -1683,7 +1689,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>46</v>
@@ -1694,10 +1700,10 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>45</v>
@@ -1705,7 +1711,7 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>46</v>
@@ -1716,10 +1722,10 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>45</v>
@@ -1727,10 +1733,10 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>45</v>
@@ -1738,10 +1744,10 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>45</v>
@@ -1749,10 +1755,10 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>45</v>
@@ -1760,7 +1766,7 @@
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>46</v>
@@ -1769,12 +1775,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>45</v>
@@ -1782,10 +1788,10 @@
     </row>
     <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>45</v>
@@ -1793,101 +1799,145 @@
     </row>
     <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B91" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>45</v>
+      <c r="C91" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>10</v>
+      <c r="A92" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>75</v>
+      <c r="A93" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="C98" s="6" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>21</v>
+      <c r="A99" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>94</v>
+      <c r="B103" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="104">
   <si>
     <t>TYPE</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Mutation</t>
   </si>
   <si>
-    <t>PutDicomTcpInboundNode</t>
-  </si>
-  <si>
-    <t>PutDicomTcpOutboundNode</t>
-  </si>
-  <si>
     <t>PutEdge</t>
   </si>
   <si>
@@ -107,12 +101,6 @@
     <t>PutExternalNode</t>
   </si>
   <si>
-    <t>PutHl7MllpInboundNode</t>
-  </si>
-  <si>
-    <t>PutHl7MllpOutboundNode</t>
-  </si>
-  <si>
     <t>PutKmsKey</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t>large_message_storage_datasource</t>
   </si>
   <si>
-    <t>AppNotification</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
@@ -315,6 +300,42 @@
   </si>
   <si>
     <t>ListSnsSubscriptions</t>
+  </si>
+  <si>
+    <t>ConfirmSnsSubscription</t>
+  </si>
+  <si>
+    <t>DeleteApiUser</t>
+  </si>
+  <si>
+    <t>DeleteTenant</t>
+  </si>
+  <si>
+    <t>DeregisterManagedAppInstance</t>
+  </si>
+  <si>
+    <t>NotifyApp</t>
+  </si>
+  <si>
+    <t>PutApiUser</t>
+  </si>
+  <si>
+    <t>PutXTenantReceivingApp</t>
+  </si>
+  <si>
+    <t>RegenerateAppISO</t>
+  </si>
+  <si>
+    <t>RemoveTenantUser</t>
+  </si>
+  <si>
+    <t>SubscribeToSns</t>
+  </si>
+  <si>
+    <t>UnsubscribeFromSns</t>
+  </si>
+  <si>
+    <t>UpdateTenantUser</t>
   </si>
 </sst>
 </file>
@@ -678,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -774,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -796,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -818,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -829,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -840,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -862,194 +883,240 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
@@ -1083,10 +1150,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1117,10 +1184,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1151,10 +1218,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1185,10 +1252,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1219,21 +1286,44 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1241,10 +1331,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1252,10 +1342,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1263,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -1274,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1285,10 +1375,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1296,648 +1386,725 @@
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>55</v>
+      <c r="A69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>60</v>
+      <c r="A76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="C86" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>86</v>
+      <c r="B87" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>45</v>
+      <c r="C104" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
   <si>
     <t>TYPE</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>UpdateTenantUser</t>
+  </si>
+  <si>
+    <t>TenantUser</t>
   </si>
 </sst>
 </file>
@@ -699,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2107,6 +2110,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="107">
   <si>
     <t>TYPE</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>TenantUser</t>
+  </si>
+  <si>
+    <t>ValidatorExists</t>
+  </si>
+  <si>
+    <t>PutValidator</t>
   </si>
 </sst>
 </file>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -897,21 +903,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -919,10 +925,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -930,10 +936,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -941,10 +947,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -952,10 +958,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -963,10 +969,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -974,10 +980,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -985,10 +991,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -996,10 +1002,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1007,10 +1013,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1018,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1029,10 +1035,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1040,10 +1046,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1051,44 +1057,21 @@
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1119,10 +1102,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1153,10 +1136,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1187,10 +1170,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1221,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1255,10 +1238,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1289,10 +1272,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1323,21 +1306,44 @@
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1345,10 +1351,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1356,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -1367,10 +1373,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1378,10 +1384,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1389,10 +1395,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1400,10 +1406,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1411,10 +1417,10 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1422,10 +1428,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1433,10 +1439,10 @@
         <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1444,10 +1450,10 @@
         <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1455,10 +1461,10 @@
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1466,7 +1472,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>83</v>
@@ -1474,24 +1480,24 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1499,7 +1505,7 @@
         <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>41</v>
@@ -1510,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>41</v>
@@ -1521,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>41</v>
@@ -1529,23 +1535,23 @@
     </row>
     <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1554,7 +1560,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>41</v>
@@ -1565,7 +1571,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>41</v>
@@ -1576,7 +1582,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>41</v>
@@ -1587,7 +1593,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>41</v>
@@ -1595,23 +1601,23 @@
     </row>
     <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1620,7 +1626,7 @@
         <v>49</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>41</v>
@@ -1631,7 +1637,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>41</v>
@@ -1642,7 +1648,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>41</v>
@@ -1653,7 +1659,7 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>41</v>
@@ -1661,10 +1667,10 @@
     </row>
     <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>41</v>
@@ -1672,10 +1678,10 @@
     </row>
     <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>41</v>
@@ -1683,10 +1689,10 @@
     </row>
     <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>41</v>
@@ -1696,8 +1702,8 @@
       <c r="A73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>54</v>
+      <c r="B73" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>41</v>
@@ -1708,7 +1714,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>41</v>
@@ -1718,19 +1724,19 @@
       <c r="A75" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>81</v>
+      <c r="B75" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>51</v>
+      <c r="B76" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>41</v>
@@ -1738,21 +1744,21 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>56</v>
+      <c r="A78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>41</v>
@@ -1763,7 +1769,7 @@
         <v>55</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>41</v>
@@ -1771,10 +1777,10 @@
     </row>
     <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>41</v>
@@ -1782,10 +1788,10 @@
     </row>
     <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>41</v>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>42</v>
@@ -1804,10 +1810,10 @@
     </row>
     <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>41</v>
@@ -1815,7 +1821,7 @@
     </row>
     <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>42</v>
@@ -1826,54 +1832,54 @@
     </row>
     <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="C87" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="C88" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>41</v>
@@ -1881,7 +1887,7 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>42</v>
@@ -1892,10 +1898,10 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>41</v>
@@ -1906,7 +1912,7 @@
         <v>62</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>41</v>
@@ -1917,7 +1923,7 @@
         <v>62</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>41</v>
@@ -1928,7 +1934,7 @@
         <v>62</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>41</v>
@@ -1936,32 +1942,32 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>41</v>
@@ -1969,46 +1975,46 @@
     </row>
     <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B100" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -2016,9 +2022,9 @@
         <v>71</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2027,7 +2033,7 @@
         <v>71</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>41</v>
@@ -2038,7 +2044,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>41</v>
@@ -2049,7 +2055,7 @@
         <v>71</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>41</v>
@@ -2060,7 +2066,7 @@
         <v>71</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>41</v>
@@ -2068,10 +2074,10 @@
     </row>
     <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>41</v>
@@ -2079,10 +2085,10 @@
     </row>
     <row r="108" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>41</v>
@@ -2093,7 +2099,7 @@
         <v>72</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>41</v>
@@ -2101,10 +2107,10 @@
     </row>
     <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>41</v>
@@ -2112,12 +2118,34 @@
     </row>
     <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>41</v>
       </c>
     </row>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
   <si>
     <t>TYPE</t>
   </si>
@@ -339,12 +339,6 @@
   </si>
   <si>
     <t>TenantUser</t>
-  </si>
-  <si>
-    <t>ValidatorExists</t>
-  </si>
-  <si>
-    <t>PutValidator</t>
   </si>
 </sst>
 </file>
@@ -708,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -903,21 +897,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -925,10 +919,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -936,10 +930,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -947,10 +941,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -958,10 +952,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -969,10 +963,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -980,10 +974,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -991,10 +985,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1002,10 +996,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1013,10 +1007,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1024,10 +1018,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1035,10 +1029,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1046,10 +1040,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1057,21 +1051,44 @@
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1102,10 +1119,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1136,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1170,10 +1187,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1204,10 +1221,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1238,10 +1255,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1272,10 +1289,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1306,44 +1323,21 @@
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1351,10 +1345,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1362,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -1373,10 +1367,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1384,10 +1378,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1395,10 +1389,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1406,10 +1400,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1417,10 +1411,10 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1428,10 +1422,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1439,10 +1433,10 @@
         <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1450,10 +1444,10 @@
         <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1461,10 +1455,10 @@
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1472,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>83</v>
@@ -1480,24 +1474,24 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1505,7 +1499,7 @@
         <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>41</v>
@@ -1516,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>41</v>
@@ -1527,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>41</v>
@@ -1535,23 +1529,23 @@
     </row>
     <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1560,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>41</v>
@@ -1571,7 +1565,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>41</v>
@@ -1582,7 +1576,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>41</v>
@@ -1593,7 +1587,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>41</v>
@@ -1601,23 +1595,23 @@
     </row>
     <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1626,7 +1620,7 @@
         <v>49</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>41</v>
@@ -1637,7 +1631,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>41</v>
@@ -1648,7 +1642,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>41</v>
@@ -1659,7 +1653,7 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>41</v>
@@ -1667,10 +1661,10 @@
     </row>
     <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>41</v>
@@ -1678,10 +1672,10 @@
     </row>
     <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>41</v>
@@ -1689,10 +1683,10 @@
     </row>
     <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>41</v>
@@ -1702,8 +1696,8 @@
       <c r="A73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>42</v>
+      <c r="B73" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>41</v>
@@ -1714,7 +1708,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>41</v>
@@ -1724,19 +1718,19 @@
       <c r="A75" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>54</v>
+      <c r="B75" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>48</v>
+      <c r="B76" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>41</v>
@@ -1744,21 +1738,21 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>51</v>
+      <c r="A78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>41</v>
@@ -1769,7 +1763,7 @@
         <v>55</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>41</v>
@@ -1777,10 +1771,10 @@
     </row>
     <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>41</v>
@@ -1788,10 +1782,10 @@
     </row>
     <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>41</v>
@@ -1799,7 +1793,7 @@
     </row>
     <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>42</v>
@@ -1810,10 +1804,10 @@
     </row>
     <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>41</v>
@@ -1821,7 +1815,7 @@
     </row>
     <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>42</v>
@@ -1832,54 +1826,54 @@
     </row>
     <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>41</v>
@@ -1887,7 +1881,7 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>42</v>
@@ -1898,10 +1892,10 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>41</v>
@@ -1912,7 +1906,7 @@
         <v>62</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>41</v>
@@ -1923,7 +1917,7 @@
         <v>62</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>41</v>
@@ -1934,7 +1928,7 @@
         <v>62</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>41</v>
@@ -1942,32 +1936,32 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>41</v>
@@ -1975,46 +1969,46 @@
     </row>
     <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="B100" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -2022,9 +2016,9 @@
         <v>71</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2033,7 +2027,7 @@
         <v>71</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>41</v>
@@ -2044,7 +2038,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>41</v>
@@ -2055,7 +2049,7 @@
         <v>71</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>41</v>
@@ -2066,7 +2060,7 @@
         <v>71</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>41</v>
@@ -2074,10 +2068,10 @@
     </row>
     <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>41</v>
@@ -2085,10 +2079,10 @@
     </row>
     <row r="108" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>41</v>
@@ -2099,7 +2093,7 @@
         <v>72</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>41</v>
@@ -2107,10 +2101,10 @@
     </row>
     <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>41</v>
@@ -2118,34 +2112,12 @@
     </row>
     <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C113" s="6" t="s">
         <v>41</v>
       </c>
     </row>

--- a/resolver_list.xlsx
+++ b/resolver_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="106">
   <si>
     <t>TYPE</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>TenantUser</t>
+  </si>
+  <si>
+    <t>DeleteKmsKey</t>
   </si>
 </sst>
 </file>
@@ -702,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -952,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
@@ -963,10 +966,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -974,10 +977,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -985,10 +988,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -996,10 +999,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1007,10 +1010,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1018,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1029,10 +1032,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1040,10 +1043,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1051,44 +1054,21 @@
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1119,10 +1099,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1153,10 +1133,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1187,10 +1167,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1221,10 +1201,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1255,10 +1235,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1289,10 +1269,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1323,21 +1303,44 @@
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1345,10 +1348,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1356,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -1367,10 +1370,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1378,10 +1381,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1389,10 +1392,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1400,10 +1403,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1411,10 +1414,10 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1422,10 +1425,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1433,10 +1436,10 @@
         <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1444,10 +1447,10 @@
         <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1455,10 +1458,10 @@
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1466,7 +1469,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>83</v>
@@ -1474,13 +1477,13 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1488,7 +1491,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>41</v>
@@ -1499,7 +1502,7 @@
         <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>41</v>
@@ -1510,7 +1513,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>41</v>
@@ -1521,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>41</v>
@@ -1529,12 +1532,12 @@
     </row>
     <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1543,7 +1546,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>41</v>
@@ -1554,7 +1557,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>41</v>
@@ -1565,7 +1568,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>41</v>
@@ -1576,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>41</v>
@@ -1587,7 +1590,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>41</v>
@@ -1595,12 +1598,12 @@
     </row>
     <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1609,7 +1612,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>41</v>
@@ -1620,7 +1623,7 @@
         <v>49</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>41</v>
@@ -1631,7 +1634,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>41</v>
@@ -1642,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>41</v>
@@ -1653,7 +1656,7 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>41</v>
@@ -1661,10 +1664,10 @@
     </row>
     <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>41</v>
@@ -1672,7 +1675,7 @@
     </row>
     <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>42</v>
@@ -1686,7 +1689,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>41</v>
@@ -1696,8 +1699,8 @@
       <c r="A73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>54</v>
+      <c r="B73" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>41</v>
@@ -1707,8 +1710,8 @@
       <c r="A74" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>48</v>
+      <c r="B74" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>41</v>
@@ -1719,29 +1722,29 @@
         <v>53</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="C76" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>41</v>
@@ -1752,7 +1755,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>41</v>
@@ -1763,7 +1766,7 @@
         <v>55</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>41</v>
@@ -1771,10 +1774,10 @@
     </row>
     <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>41</v>
@@ -1782,10 +1785,10 @@
     </row>
     <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>41</v>
@@ -1793,10 +1796,10 @@
     </row>
     <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>41</v>
@@ -1807,7 +1810,7 @@
         <v>59</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>41</v>
@@ -1815,10 +1818,10 @@
     </row>
     <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>41</v>
@@ -1829,18 +1832,18 @@
         <v>60</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>41</v>
@@ -1851,18 +1854,18 @@
         <v>60</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>41</v>
@@ -1872,8 +1875,8 @@
       <c r="A89" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>56</v>
+      <c r="B89" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>41</v>
@@ -1881,10 +1884,10 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>41</v>
@@ -1895,7 +1898,7 @@
         <v>62</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>41</v>
@@ -1906,7 +1909,7 @@
         <v>62</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>41</v>
@@ -1917,7 +1920,7 @@
         <v>62</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>41</v>
@@ -1928,7 +1931,7 @@
         <v>62</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>41</v>
@@ -1936,21 +1939,21 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>41</v>
@@ -1958,10 +1961,10 @@
     </row>
     <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>41</v>
@@ -1969,21 +1972,21 @@
     </row>
     <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B99" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>67</v>
@@ -1991,13 +1994,13 @@
     </row>
     <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -2005,9 +2008,9 @@
         <v>71</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2016,7 +2019,7 @@
         <v>71</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>41</v>
@@ -2027,7 +2030,7 @@
         <v>71</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>41</v>
@@ -2038,7 +2041,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>41</v>
@@ -2049,7 +2052,7 @@
         <v>71</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>41</v>
@@ -2060,7 +2063,7 @@
         <v>71</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>41</v>
@@ -2068,10 +2071,10 @@
     </row>
     <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>41</v>
@@ -2082,7 +2085,7 @@
         <v>72</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>41</v>
@@ -2093,7 +2096,7 @@
         <v>72</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>41</v>
@@ -2101,7 +2104,7 @@
     </row>
     <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>42</v>
@@ -2112,12 +2115,23 @@
     </row>
     <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>41</v>
       </c>
     </row>
